--- a/biology/Médecine/Myologie/Myologie.xlsx
+++ b/biology/Médecine/Myologie/Myologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La myologie est une partie de l'anatomie qui traite des muscles, mais aussi la science qui traite du fonctionnement musculaire : muscle malade (maladies neuro-musculaires, myopathies), muscle vieillissant, muscle accidenté, muscle sportif etc[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La myologie est une partie de l'anatomie qui traite des muscles, mais aussi la science qui traite du fonctionnement musculaire : muscle malade (maladies neuro-musculaires, myopathies), muscle vieillissant, muscle accidenté, muscle sportif etc.
 Il y a trois types de muscles : les muscles striés squelettiques, le muscle strié cardiaque et les muscles lisses.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Les différentes formes de muscles striés du corps humain</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Muscle creux :
 Le cœur
@@ -560,7 +574,9 @@
           <t>Qualité fonctionnelle des muscles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon leur fonction, on distingue :
 le muscle fléchisseur rapproche les éléments entre eux (exemple : la flexion du coude rapproche l'avant-bras du bras)
@@ -600,7 +616,9 @@
           <t>Muscles du corps humain (myologie topographique)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le corps humain possède environ 600 muscles dont 570 muscles striés squelettiques (par opposition au myocarde).
 </t>
@@ -631,11 +649,13 @@
           <t>Revue</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Il existe en france :
-un institut de myologie basé à la Pitié-Salpêtrière à Paris qui produit de la recherche, des enseignement, dispose d'un service de neuro-myologie pour adultes[2] ;
-une revue scientifique destinée aux professionnels de la myologie, Les Cahiers de myologie, consacrée aux « tissus musculaires squelettique, lisse et cardiaque, dans leurs aspects biologiques et physiologiques fondamentaux, et dans leurs différents états pathologiques, humains comme expérimentaux. Des cas cliniques y sont également décrits »[3].</t>
+un institut de myologie basé à la Pitié-Salpêtrière à Paris qui produit de la recherche, des enseignement, dispose d'un service de neuro-myologie pour adultes ;
+une revue scientifique destinée aux professionnels de la myologie, Les Cahiers de myologie, consacrée aux « tissus musculaires squelettique, lisse et cardiaque, dans leurs aspects biologiques et physiologiques fondamentaux, et dans leurs différents états pathologiques, humains comme expérimentaux. Des cas cliniques y sont également décrits ».</t>
         </is>
       </c>
     </row>
